--- a/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
+++ b/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.65368360797902</v>
+        <v>0.34631639202098</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.996057860752678</v>
+        <v>0.003942139247322</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.432647502164417</v>
+        <v>0.5673524978355829</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.465183929080098</v>
+        <v>0.534816070919902</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3086,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.314735726158678</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.089041095890411</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.60958904109589</v>
+      </c>
+      <c r="I30" t="n">
         <v>5</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.768783636774762</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.34</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0183049347594926</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0822412749890581</v>
+        <v>-0.076462353348535</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0550752846376088</v>
+        <v>0.07128886603831611</v>
       </c>
       <c r="N30" t="n">
-        <v>5.38380434102722</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.95679463351315</v>
+        <v>0.520768103024614</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.815286624203822</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>102</v>
+        <v>10.46</v>
       </c>
       <c r="K31" t="n">
-        <v>1.67511068984396</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.40774415660216</v>
+        <v>-0.0166704701049748</v>
       </c>
       <c r="M31" t="n">
-        <v>2.71617775960345</v>
+        <v>0.0223185229863574</v>
       </c>
       <c r="N31" t="n">
-        <v>1.64226538219996</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.231216363225238</v>
+        <v>0.791235184149223</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.110429447852761</v>
       </c>
       <c r="H32" t="n">
+        <v>0.0858895705521472</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>4.81</v>
+        <v>0.008</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.342591811414392</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.59620365448009</v>
+        <v>-0.0001213455149501</v>
       </c>
       <c r="M32" t="n">
-        <v>0.141287012864414</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-7.12249088179609</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,14 +3359,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.185546684761349</v>
+        <v>0.0908188507178303</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0061349693251533</v>
       </c>
       <c r="H33" t="n">
+        <v>0.5644171779141099</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4</v>
+        <v>78</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0154766949152543</v>
+        <v>1.48508029929222</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0407354495366823</v>
+        <v>-0.387415669047377</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0095660939634941</v>
+        <v>3.49133809179148</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.86917372881356</v>
+        <v>1.90394910165669</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.264799404212504</v>
+        <v>0.8765369184455299</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.920529801324503</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.112582781456954</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>107.215</v>
+        <v>0.005</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.00225401803214</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.28546148849928</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.689328678749026</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.934807646348127</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.295752518497458</v>
+        <v>0.18718181380675</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>0.002</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.07998691860465119</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.350002660897787</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.243384813665992</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.59973837209302</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3598,7 +3618,1075 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.639457864808229</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0017889795918367</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0067124597197343</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0029861988077308</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.591398212177436</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.923730163711821</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.56953642384106</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.008818590869183501</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0011191319915348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.017945110394385</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.119331405536989</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.712292009027986</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.858895705521472</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0020013783131942</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0064808894456723</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.002500341358934</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.645605907482008</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.966445407584454</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.576687116564417</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0050225420323787</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0100343406593407</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0001237354157483</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.21025109213946</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.892764716443622</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0184049079754601</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.251533742331288</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0001257314974182</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0003403677836081</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.898082124416032</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.945833858571522</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.807453416149068</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0218496210150982</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0549418286156752</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0001270976373689</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.83610260631078</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0183049347594926</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0822412749890581</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0550752846376088</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.38380434102722</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>102</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.67511068984396</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.40774415660216</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.71617775960345</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.64226538219996</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.342591811414392</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.59620365448009</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.141287012864414</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-7.12249088179609</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0154766949152543</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0407354495366823</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0095660939634941</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-3.86917372881356</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.264799404212504</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>107.215</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.00225401803214</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2.28546148849928</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.689328678749026</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.934807646348127</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.07998691860465119</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.350002660897787</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.243384813665992</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.59973837209302</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
+++ b/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.966254640770014</v>
+        <v>0.674632089582643</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.814814814814815</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.5578554313099</v>
+        <v>-0.288044895678092</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.67362846657668</v>
+        <v>-1.76610900667209</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.178580776520807</v>
+        <v>1.11854410574842</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.1623221028173</v>
+        <v>-4.43145993350911</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.381827792323919</v>
+        <v>0.992740007148783</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.745098039215686</v>
+        <v>0.66</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0318162020905922</v>
+        <v>0.229356357927786</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.188691136832606</v>
+        <v>0.0760047339555518</v>
       </c>
       <c r="M3" t="n">
-        <v>0.116254510478073</v>
+        <v>0.38874322147616</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.06054006968641</v>
+        <v>7.61981255574041</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.34631639202098</v>
+        <v>0.192252314690135</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.695</v>
+        <v>10.795</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0133791208791206</v>
+        <v>-0.017476076555024</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.157914420993219</v>
+        <v>-0.158746638588547</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09008257778459031</v>
+        <v>0.0144352453283565</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.125096969416742</v>
+        <v>-0.161890472950662</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.101972526477211</v>
+        <v>0.07738353616155259</v>
       </c>
       <c r="G5" t="n">
         <v>0.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.196428571428571</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.007</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002859121265151</v>
+        <v>0.0003730085784313</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0009137605749145</v>
+        <v>0.0009574049803407</v>
       </c>
       <c r="N5" t="n">
-        <v>4.08445895021673</v>
+        <v>5.32869397759104</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.650162187182648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0178571428571429</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.678571428571429</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-4.5154532967033</v>
       </c>
       <c r="L6" t="n">
         <v>-12.2409756568986</v>
       </c>
       <c r="M6" t="n">
-        <v>8.177134592069571</v>
+        <v>4.1590212569652</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-5.01717032967033</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,24 +1024,36 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.287025675430547</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.938775510204082</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="H7" t="n">
-        <v>0.142857142857143</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.801224654688901</v>
+        <v>0.995427693190824</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="H8" t="n">
         <v>0.125</v>
@@ -1119,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0002193130375015</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.729656779857594</v>
+        <v>0.270343220142406</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2975</v>
+        <v>0.2885</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0122773109243697</v>
+        <v>0.0173928571428572</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0333029931135254</v>
+        <v>-0.0123875268297947</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0106370973414675</v>
+        <v>0.0357176915096528</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.12682720146882</v>
+        <v>6.02871998019312</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.003942139247322</v>
+        <v>0.225501076782877</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.803921568627451</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.41</v>
+        <v>7.395</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0797172619047618</v>
+        <v>-0.0256615925058546</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.130136776178888</v>
+        <v>-0.0740880691139184</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0317145216494334</v>
+        <v>0.0267582417582412</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.07580650343808</v>
+        <v>-0.347012745177209</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,7 +1388,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7777805887479819</v>
+        <v>0.222219411252018</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3035</v>
+        <v>0.29425</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0167365229110512</v>
+        <v>0.0163268433179724</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0344248934503807</v>
+        <v>-0.0132698326146602</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009898029198813999</v>
+        <v>0.0333939549236871</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.51450507777635</v>
+        <v>5.54862984468049</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.245420821114874</v>
+        <v>0.199429297046883</v>
       </c>
       <c r="G12" t="n">
-        <v>0.392857142857143</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.178571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.355</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0124829118250171</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0380486588582357</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.51631319014566</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1531,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.822016440133134</v>
+        <v>0.009898043824505201</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.38</v>
+        <v>0.014</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0200686813186813</v>
+        <v>0.0010384052333804</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0448068639526132</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009881278829092901</v>
+        <v>0.0018308270676691</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.28123192596877</v>
+        <v>7.41718023843201</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1649,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0040289260508724</v>
+        <v>0.649318976265581</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.375</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0135</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0011946234014216</v>
+        <v>-0.029958988380041</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000416374557345</v>
+        <v>-0.180258684674198</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0018635204081632</v>
+        <v>0.0883333598634264</v>
       </c>
       <c r="N14" t="n">
-        <v>8.849062232753131</v>
+        <v>-2.77398040555936</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.439221288501481</v>
+        <v>0.308425689250696</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.928571428571429</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.115</v>
+        <v>7.25</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0199408553230209</v>
+        <v>0.114678178963893</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0722030583410832</v>
+        <v>-0.268562244553777</v>
       </c>
       <c r="M15" t="n">
-        <v>0.140500148634225</v>
+        <v>0.6541117933925999</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78841751775973</v>
+        <v>1.58176798570887</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1827,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.536691669294697</v>
+        <v>0.07734020864883991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.744897959183674</v>
+        <v>0.656862745098039</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>7.75</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.115952380952381</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.480921187963679</v>
+        <v>-0.269308755760369</v>
       </c>
       <c r="M16" t="n">
-        <v>0.46123614310044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-3.68102796674226</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0006273696854439</v>
+        <v>0.6643133797295639</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0792079207920792</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.683168316831683</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>10.495</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.254440992206381</v>
+        <v>0.0050011410314926</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.387001839420803</v>
+        <v>-0.0171354491028549</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.127222932082069</v>
+        <v>0.0393783631880058</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.077491816075581</v>
+        <v>0.0476526063029315</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.39481209291694</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.120689655172414</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.112068965517241</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.5673524978355829</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.47</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0024965823650038</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0179956060560782</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0352215033405137</v>
+        <v>0.0001525600836771</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0238451037727202</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,43 +2101,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.344084521801359</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.120689655172414</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H19" t="n">
-        <v>0.103448275862069</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008</v>
+        <v>84.5</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-4.31665092637693</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001793078055964</v>
+        <v>2.49916167575897</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2168,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,43 +2192,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.435464346707543</v>
+        <v>0.30557586015623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>82</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.65250867064642</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.28205217428293</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,29 +2294,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.45241838229694</v>
+        <v>0.999889607600729</v>
       </c>
       <c r="G21" t="n">
-        <v>0.951923076923077</v>
+        <v>0.439655172413793</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0961538461538462</v>
+        <v>0.09482758620689651</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.992928145227301</v>
+        <v>0.705225840883235</v>
       </c>
       <c r="G22" t="n">
-        <v>0.370689655172414</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09482758620689651</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002</v>
+        <v>0.29715</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.0021805970149253</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001348283499446</v>
+        <v>-0.0094850921015455</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0029881058135308</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.733837124322861</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.478487871018216</v>
+        <v>0.251283722065699</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.931034482758621</v>
+        <v>0.644859813084112</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2945</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004922506738544</v>
+        <v>-0.0071970443349754</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0056175201214892</v>
+        <v>-0.02229288948324</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0074355024969464</v>
+        <v>0.009977921879764699</v>
       </c>
       <c r="N23" t="n">
-        <v>0.167147936792682</v>
+        <v>-0.09725735587804631</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2542,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.534816070919902</v>
+        <v>0.667095472562406</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.641509433962264</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>0.3025</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0015051510989011</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0138097057577199</v>
+        <v>-0.009969377311083501</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0150893309050586</v>
+        <v>0.0036526296911712</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.497570611206975</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2629,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.435666668443441</v>
+        <v>0.980111513944198</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.844827586206897</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.302</v>
+        <v>0.39</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0012865949119373</v>
+        <v>-0.0100343406593406</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0052639920182542</v>
+        <v>-0.0187783174482548</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0075178608678102</v>
+        <v>-0.0024971802237388</v>
       </c>
       <c r="N25" t="n">
-        <v>0.426024805277278</v>
+        <v>-2.57290786136939</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,32 +2745,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.305698483557445</v>
+        <v>0.541958112779371</v>
       </c>
       <c r="G26" t="n">
-        <v>0.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.175438596491228</v>
+        <v>0.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.014</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0002183203825463</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0689755735264507</v>
+        <v>0.0002049049898022</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2770,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.854217868796332</v>
+        <v>0.964072285151458</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.637931034482759</v>
+        <v>0.850877192982456</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.385</v>
+        <v>1.155</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0050011410314924</v>
+        <v>-0.0406048173636845</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0133105412838515</v>
+        <v>-0.0810066706098085</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0023137927648482</v>
+        <v>-0.0046018408504244</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.29899767051753</v>
+        <v>-3.51556860291641</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2919,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.109218470089692</v>
+        <v>0.466112954810134</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.089171974522293</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0.573248407643312</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>0.014</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001598122321478</v>
+        <v>0.0168204281133492</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.0489391088121203</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004537267080745</v>
+        <v>0.07932496105028571</v>
       </c>
       <c r="N28" t="n">
-        <v>1.14151594391345</v>
+        <v>0.533981844868228</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2995,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3010,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.355765028861744</v>
+        <v>0.549663898385934</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.842105263157895</v>
+        <v>0.7928994082840241</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.145</v>
+        <v>10.47</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0079009579728059</v>
+        <v>0.0007147749510764</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0273092671492707</v>
+        <v>-0.0150130479538339</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0439935752029722</v>
+        <v>0.0188872512417618</v>
       </c>
       <c r="N29" t="n">
-        <v>0.690039997624973</v>
+        <v>0.0068268858746555</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,28 +3113,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.314735726158678</v>
+        <v>0.777184811809457</v>
       </c>
       <c r="G30" t="n">
-        <v>0.089041095890411</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="H30" t="n">
-        <v>0.60958904109589</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>0.008</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.076462353348535</v>
+        <v>-0.0001031460080338</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07128886603831611</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3188,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.520768103024614</v>
+        <v>0.126163587076499</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H31" t="n">
-        <v>0.815286624203822</v>
+        <v>0.554285714285714</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>10.46</v>
+        <v>79</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.33913840513291</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0166704701049748</v>
+        <v>-0.661532594200688</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0223185229863574</v>
+        <v>2.90380944257831</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.69511190523153</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3279,29 +3291,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.791235184149223</v>
+        <v>0.723553702339841</v>
       </c>
       <c r="G32" t="n">
-        <v>0.110429447852761</v>
+        <v>0.914110429447853</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0858895705521472</v>
+        <v>0.116564417177914</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0001213455149501</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0908188507178303</v>
+        <v>0.57069897444227</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0061349693251533</v>
+        <v>0.524096385542169</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5644171779141099</v>
+        <v>0.0662650602409639</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>78</v>
+        <v>0.002</v>
       </c>
       <c r="K33" t="n">
-        <v>1.48508029929222</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.387415669047377</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3.49133809179148</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.90394910165669</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8765369184455299</v>
+        <v>0.778870848563633</v>
       </c>
       <c r="G34" t="n">
-        <v>0.920529801324503</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.112582781456954</v>
+        <v>0.8915662650602409</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.301</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.002209475393028</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0065555814343728</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0021535354140625</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.734044981072433</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3552,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.18718181380675</v>
+        <v>0.902776521876792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.54601226993865</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.002</v>
+        <v>7.39</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0073284510433386</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0018744697764286</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0160549450549448</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.0991671318449074</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,11 +3630,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3632,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3647,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.639457864808229</v>
+        <v>0.788703582812276</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.908571428571429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3025</v>
+        <v>0.307</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0017889795918367</v>
+        <v>-0.0022350473746545</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0067124597197343</v>
+        <v>-0.0065858063650349</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0029861988077308</v>
+        <v>0.0017800780486012</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.591398212177436</v>
+        <v>-0.728028460799532</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3711,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3723,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3738,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.923730163711821</v>
+        <v>0.987642355980586</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.56953642384106</v>
+        <v>0.554285714285714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.39</v>
+        <v>0.41</v>
       </c>
       <c r="K37" t="n">
-        <v>0.008818590869183501</v>
+        <v>-0.0056499090081892</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0011191319915348</v>
+        <v>-0.0100265211607789</v>
       </c>
       <c r="M37" t="n">
-        <v>0.017945110394385</v>
+        <v>-0.0011136424895452</v>
       </c>
       <c r="N37" t="n">
-        <v>0.119331405536989</v>
+        <v>-1.37802658736323</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3800,7 +3808,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3810,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.889728864677364</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0171428571428571</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.712292009027986</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.858895705521472</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>0.31</v>
+        <v>0.014</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0020013783131942</v>
+        <v>-9.91988049972842e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0064808894456723</v>
+        <v>-0.0002858868725813</v>
       </c>
       <c r="M38" t="n">
-        <v>0.002500341358934</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.645605907482008</v>
+        <v>-0.708562892837744</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3901,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3916,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.966445407584454</v>
+        <v>0.990633681350349</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.576687116564417</v>
+        <v>0.797687861271676</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.415</v>
+        <v>1.16</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0050225420323787</v>
+        <v>-0.0274624060150376</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0100343406593407</v>
+        <v>-0.0563184933836189</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0001237354157483</v>
+        <v>-0.005831836147015</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.21025109213946</v>
+        <v>-2.36744879439979</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3992,11 +4004,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4007,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.892764716443622</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0184049079754601</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.251533742331288</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.014</v>
+        <v>0.356</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0001257314974182</v>
+        <v>0.0137663766063528</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0003403677836081</v>
+        <v>-0.055886887442522</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0418301914346549</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.898082124416032</v>
+        <v>3.86695972088563</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4069,11 +4081,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4083,46 +4091,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.945833858571522</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.807453416149068</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.19</v>
+        <v>102</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0218496210150982</v>
+        <v>1.28271265182186</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0549418286156752</v>
+        <v>-5.78755247637636</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001270976373689</v>
+        <v>2.71617775960345</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.83610260631078</v>
+        <v>1.25756142335476</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4139,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,11 +4168,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4174,7 +4178,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4189,7 +4193,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.768783636774762</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4201,19 +4205,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.34</v>
+        <v>4.41</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0183049347594926</v>
+        <v>-0.155762710905682</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0822412749890581</v>
+        <v>-0.505487109692713</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0550752846376088</v>
+        <v>0.141287012864414</v>
       </c>
       <c r="N42" t="n">
-        <v>5.38380434102722</v>
+        <v>-3.53203426089982</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4226,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4261,11 +4265,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4276,7 +4280,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.95679463351315</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4288,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>102</v>
+        <v>0.3825</v>
       </c>
       <c r="K43" t="n">
-        <v>1.67511068984396</v>
+        <v>-0.0202543658088235</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.40774415660216</v>
+        <v>-0.0415938182788487</v>
       </c>
       <c r="M43" t="n">
-        <v>2.71617775960345</v>
+        <v>0.0072127826178673</v>
       </c>
       <c r="N43" t="n">
-        <v>1.64226538219996</v>
+        <v>-5.29525903498655</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4309,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4348,11 +4352,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4363,31 +4367,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>0.121517480147261</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.81</v>
+        <v>104.215</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.342591811414392</v>
+        <v>-1.1315834767642</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.59620365448009</v>
+        <v>-2.51456511046723</v>
       </c>
       <c r="M44" t="n">
-        <v>0.141287012864414</v>
+        <v>0.187037790308615</v>
       </c>
       <c r="N44" t="n">
-        <v>-7.12249088179609</v>
+        <v>-1.08581631892165</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4435,7 +4439,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4450,7 +4454,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.185546684761349</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4462,19 +4466,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4</v>
+        <v>4.83</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0154766949152543</v>
+        <v>-0.178851078167116</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0407354495366823</v>
+        <v>-0.518400120898371</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0095660939634941</v>
+        <v>0.0822653416762751</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.86917372881356</v>
+        <v>-3.70292087302518</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4513,180 +4517,6 @@
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Ohau at Haines Property</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>10</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.264799404212504</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>107.215</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-1.00225401803214</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-2.28546148849928</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.689328678749026</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-0.934807646348127</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>1785783</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5496186</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>Ohau</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Ohau_1b</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Ohau at Haines Property</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.295752518497458</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-0.07998691860465119</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-0.350002660897787</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.243384813665992</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1.59973837209302</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1785783</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5496186</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Ohau</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Ohau_1b</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
+++ b/trend_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -139,46 +139,40 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -660,13 +654,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.674632089582643</v>
+        <v>0.416457374122681</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.792452830188679</v>
+        <v>0.893617021276596</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -675,16 +669,16 @@
         <v>6.5</v>
       </c>
       <c r="K2">
-        <v>-0.288044895678092</v>
+        <v>0.137312030075188</v>
       </c>
       <c r="L2">
-        <v>-1.76610900667209</v>
+        <v>-1.36040047841512</v>
       </c>
       <c r="M2">
-        <v>1.11854410574842</v>
+        <v>1.87850274493106</v>
       </c>
       <c r="N2">
-        <v>-4.43145993350911</v>
+        <v>2.11249277038751</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -699,19 +693,19 @@
         <v>5496186</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,31 +725,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.992740007148783</v>
+        <v>0.994135353277078</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H3">
-        <v>0.66</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="K3">
-        <v>0.229356357927786</v>
+        <v>0.24478835978836</v>
       </c>
       <c r="L3">
-        <v>0.0760047339555518</v>
+        <v>0.0760162725074731</v>
       </c>
       <c r="M3">
-        <v>0.38874322147616</v>
+        <v>0.402502360931215</v>
       </c>
       <c r="N3">
-        <v>7.61981255574041</v>
+        <v>7.69774716315597</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -770,19 +764,19 @@
         <v>5496186</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
         <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,34 +793,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.192252314690135</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.962962962962963</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.795</v>
+        <v>10.65</v>
       </c>
       <c r="K4">
-        <v>-0.017476076555024</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.158746638588547</v>
+        <v>-0.0820866069379073</v>
       </c>
       <c r="M4">
-        <v>0.0144352453283565</v>
+        <v>0.06701092309594291</v>
       </c>
       <c r="N4">
-        <v>-0.161890472950662</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -841,19 +835,19 @@
         <v>5496186</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,34 +864,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.07738353616155259</v>
+        <v>0.234997851766159</v>
       </c>
       <c r="G5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.214285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.007</v>
       </c>
       <c r="K5">
-        <v>0.0003730085784313</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009574049803407</v>
+        <v>0.0005270562770562</v>
       </c>
       <c r="N5">
-        <v>5.32869397759104</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -912,19 +906,19 @@
         <v>5496186</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,43 +932,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.650162187182648</v>
+        <v>0.502820783376723</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.732142857142857</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>90</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K6">
-        <v>-4.5154532967033</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-12.2409756568986</v>
+        <v>-9.541996758772569</v>
       </c>
       <c r="M6">
-        <v>4.1590212569652</v>
+        <v>9.764601455443801</v>
       </c>
       <c r="N6">
-        <v>-5.01717032967033</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1785783</v>
@@ -983,19 +977,19 @@
         <v>5496186</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.287025675430547</v>
+        <v>0.609051066900663</v>
       </c>
       <c r="G7">
-        <v>0.903846153846154</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="H7">
-        <v>0.153846153846154</v>
+        <v>0.12962962962963</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1045,7 +1039,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1785783</v>
@@ -1054,19 +1048,19 @@
         <v>5496186</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.995427693190824</v>
+        <v>0.999818340363912</v>
       </c>
       <c r="G8">
-        <v>0.553571428571429</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="H8">
-        <v>0.125</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1104,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0002193130375015</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1125,19 +1119,19 @@
         <v>5496186</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,13 +1145,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.270343220142406</v>
+        <v>0.99986730860809</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1169,25 +1163,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2885</v>
+        <v>0.2445</v>
       </c>
       <c r="K9">
-        <v>0.0173928571428572</v>
+        <v>-0.0424178946053946</v>
       </c>
       <c r="L9">
-        <v>-0.0123875268297947</v>
+        <v>-0.0689311027578097</v>
       </c>
       <c r="M9">
-        <v>0.0357176915096528</v>
+        <v>-0.0228708565891421</v>
       </c>
       <c r="N9">
-        <v>6.02871998019312</v>
+        <v>-17.3488321494457</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1785783</v>
@@ -1196,19 +1190,19 @@
         <v>5496186</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.225501076782877</v>
+        <v>0.726093582099701</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.814814814814815</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.395</v>
+        <v>7.405</v>
       </c>
       <c r="K10">
-        <v>-0.0256615925058546</v>
+        <v>0.0159627611680683</v>
       </c>
       <c r="L10">
-        <v>-0.0740880691139184</v>
+        <v>-0.0314047690805544</v>
       </c>
       <c r="M10">
-        <v>0.0267582417582412</v>
+        <v>0.0528994611784513</v>
       </c>
       <c r="N10">
-        <v>-0.347012745177209</v>
+        <v>0.215567335152847</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1785783</v>
@@ -1267,16 +1261,16 @@
         <v>5496186</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,43 +1284,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.222219411252018</v>
+        <v>0.9998560815983381</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.946428571428571</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.29425</v>
+        <v>0.26075</v>
       </c>
       <c r="K11">
-        <v>0.0163268433179724</v>
+        <v>-0.0407111654509284</v>
       </c>
       <c r="L11">
-        <v>-0.0132698326146602</v>
+        <v>-0.069769819388208</v>
       </c>
       <c r="M11">
-        <v>0.0333939549236871</v>
+        <v>-0.0218595024228399</v>
       </c>
       <c r="N11">
-        <v>5.54862984468049</v>
+        <v>-15.6131027616216</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1785783</v>
@@ -1335,19 +1329,19 @@
         <v>5496186</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,43 +1355,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.199429297046883</v>
+        <v>0.997911335536197</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.714285714285714</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.355</v>
+        <v>0.33</v>
       </c>
       <c r="K12">
-        <v>0.0124829118250171</v>
+        <v>-0.0388978076940525</v>
       </c>
       <c r="L12">
-        <v>-0.0100343406593407</v>
+        <v>-0.0620557652050637</v>
       </c>
       <c r="M12">
-        <v>0.0380486588582357</v>
+        <v>-0.0161624074584443</v>
       </c>
       <c r="N12">
-        <v>3.51631319014566</v>
+        <v>-11.7872144527432</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1785783</v>
@@ -1406,19 +1400,19 @@
         <v>5496186</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.009898043824505201</v>
+        <v>0.415665573904791</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.375</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1453,22 +1447,22 @@
         <v>0.014</v>
       </c>
       <c r="K13">
-        <v>0.0010384052333804</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0005432957918025</v>
       </c>
       <c r="M13">
-        <v>0.0018308270676691</v>
+        <v>0.0007899395549274</v>
       </c>
       <c r="N13">
-        <v>7.41718023843201</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1785783</v>
@@ -1477,19 +1471,19 @@
         <v>5496186</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,7 +1503,7 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.649318976265581</v>
+        <v>0.90385601144424</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1521,25 +1515,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.08</v>
+        <v>0.975</v>
       </c>
       <c r="K14">
-        <v>-0.029958988380041</v>
+        <v>-0.0653129298486933</v>
       </c>
       <c r="L14">
-        <v>-0.180258684674198</v>
+        <v>-0.164721947312539</v>
       </c>
       <c r="M14">
-        <v>0.0883333598634264</v>
+        <v>0.0136189250380642</v>
       </c>
       <c r="N14">
-        <v>-2.77398040555936</v>
+        <v>-6.69876203576342</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1785783</v>
@@ -1548,19 +1542,19 @@
         <v>5496186</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1574,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.308425689250696</v>
+        <v>0.205259345287142</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.735294117647059</v>
+        <v>0.762886597938144</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>0.114678178963893</v>
+        <v>0.208858325939071</v>
       </c>
       <c r="L15">
-        <v>-0.268562244553777</v>
+        <v>-0.200686813186813</v>
       </c>
       <c r="M15">
-        <v>0.6541117933925999</v>
+        <v>0.8076971803233221</v>
       </c>
       <c r="N15">
-        <v>1.58176798570887</v>
+        <v>2.98369037055816</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1785783</v>
@@ -1619,19 +1613,19 @@
         <v>5496186</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
         <v>57</v>
-      </c>
-      <c r="V15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1645,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.07734020864883991</v>
+        <v>0.736140078474698</v>
       </c>
       <c r="G16">
-        <v>0.07843137254901961</v>
+        <v>0.01</v>
       </c>
       <c r="H16">
-        <v>0.656862745098039</v>
+        <v>0.7</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="K16">
-        <v>-0.115952380952381</v>
+        <v>0.0411694991973293</v>
       </c>
       <c r="L16">
-        <v>-0.269308755760369</v>
+        <v>-0.068656015037594</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.126238479262673</v>
       </c>
       <c r="N16">
-        <v>-3.68102796674226</v>
+        <v>1.36775744841625</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1785783</v>
@@ -1690,19 +1684,19 @@
         <v>5496186</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
         <v>58</v>
-      </c>
-      <c r="W16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1716,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.6643133797295639</v>
+        <v>0.858672150954503</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.495</v>
+        <v>10.52</v>
       </c>
       <c r="K17">
-        <v>0.0050011410314926</v>
+        <v>0.0224692412850307</v>
       </c>
       <c r="L17">
-        <v>-0.0171354491028549</v>
+        <v>-0.0100086435010641</v>
       </c>
       <c r="M17">
-        <v>0.0393783631880058</v>
+        <v>0.0565502217991001</v>
       </c>
       <c r="N17">
-        <v>0.0476526063029315</v>
+        <v>0.213585943774056</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1785783</v>
@@ -1761,19 +1755,19 @@
         <v>5496186</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.39481209291694</v>
+        <v>0.886718814016052</v>
       </c>
       <c r="G18">
-        <v>0.120689655172414</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H18">
         <v>0.112068965517241</v>
@@ -1805,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0002545296167247</v>
       </c>
       <c r="M18">
-        <v>0.0001525600836771</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1823,7 +1817,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1785783</v>
@@ -1832,19 +1826,19 @@
         <v>5496186</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.799312201369867</v>
       </c>
       <c r="G19">
         <v>0.0086206896551724</v>
       </c>
       <c r="H19">
-        <v>0.551724137931034</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,22 +1873,22 @@
         <v>84.5</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-2.0013698630137</v>
       </c>
       <c r="L19">
-        <v>-4.31665092637693</v>
+        <v>-5.33523501315111</v>
       </c>
       <c r="M19">
-        <v>2.49916167575897</v>
+        <v>1.27896045793634</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-2.36848504498663</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q19">
         <v>1785783</v>
@@ -1903,19 +1897,19 @@
         <v>5496186</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.30557586015623</v>
+        <v>0.0492577526696246</v>
       </c>
       <c r="G20">
-        <v>0.933333333333333</v>
+        <v>0.9428571428571429</v>
       </c>
       <c r="H20">
-        <v>0.114285714285714</v>
+        <v>0.104761904761905</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -1965,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q20">
         <v>1785783</v>
@@ -1974,19 +1968,19 @@
         <v>5496186</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,28 +1997,28 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>0.999889607600729</v>
+        <v>0.9999973384829181</v>
       </c>
       <c r="G21">
-        <v>0.439655172413793</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="H21">
-        <v>0.09482758620689651</v>
+        <v>0.0775862068965517</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0001667047010497</v>
+        <v>-0.0001640839046095</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2045,19 +2039,19 @@
         <v>5496186</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,37 +2071,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.705225840883235</v>
+        <v>0.99787711919855</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.29715</v>
+        <v>0.2805</v>
       </c>
       <c r="K22">
-        <v>-0.0021805970149253</v>
+        <v>-0.0108295148247979</v>
       </c>
       <c r="L22">
-        <v>-0.0094850921015455</v>
+        <v>-0.0187237545520338</v>
       </c>
       <c r="M22">
-        <v>0.0029881058135308</v>
+        <v>-0.0043324028917669</v>
       </c>
       <c r="N22">
-        <v>-0.733837124322861</v>
+        <v>-3.86078959885841</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1785783</v>
@@ -2116,19 +2110,19 @@
         <v>5496186</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,31 +2142,31 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.251283722065699</v>
+        <v>0.416825266324329</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.644859813084112</v>
+        <v>0.663551401869159</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="K23">
-        <v>-0.0071970443349754</v>
+        <v>-0.0023087863463969</v>
       </c>
       <c r="L23">
-        <v>-0.02229288948324</v>
+        <v>-0.0188181404904248</v>
       </c>
       <c r="M23">
-        <v>0.009977921879764699</v>
+        <v>0.0129557669036553</v>
       </c>
       <c r="N23">
-        <v>-0.09725735587804631</v>
+        <v>-0.0309904207570056</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
@@ -2187,16 +2181,16 @@
         <v>5496186</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2210,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.667095472562406</v>
+        <v>0.993494441655091</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.879310344827586</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3025</v>
+        <v>0.28825</v>
       </c>
       <c r="K24">
-        <v>-0.0015051510989011</v>
+        <v>-0.0118951149425287</v>
       </c>
       <c r="L24">
-        <v>-0.009969377311083501</v>
+        <v>-0.0198178100406821</v>
       </c>
       <c r="M24">
-        <v>0.0036526296911712</v>
+        <v>-0.0042487434444026</v>
       </c>
       <c r="N24">
-        <v>-0.497570611206975</v>
+        <v>-4.12666606852688</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1785783</v>
@@ -2255,19 +2249,19 @@
         <v>5496186</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2281,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.980111513944198</v>
+        <v>0.999915651813437</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.603448275862069</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="K25">
-        <v>-0.0100343406593406</v>
+        <v>-0.0166704701049749</v>
       </c>
       <c r="L25">
-        <v>-0.0187783174482548</v>
+        <v>-0.0265878070973613</v>
       </c>
       <c r="M25">
-        <v>-0.0024971802237388</v>
+        <v>-0.0099577426390403</v>
       </c>
       <c r="N25">
-        <v>-2.57290786136939</v>
+        <v>-4.44545869465997</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1785783</v>
@@ -2326,19 +2320,19 @@
         <v>5496186</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.541958112779371</v>
+        <v>0.850087630393819</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2373,22 +2367,22 @@
         <v>0.014</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0001191316424401</v>
       </c>
       <c r="L26">
-        <v>-0.0002183203825463</v>
+        <v>-0.0004013736263736</v>
       </c>
       <c r="M26">
-        <v>0.0002049049898022</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-0.850940303143776</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1785783</v>
@@ -2397,19 +2391,19 @@
         <v>5496186</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,43 +2417,43 @@
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.964072285151458</v>
+        <v>0.9985325748757879</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.850877192982456</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.155</v>
+        <v>1.14</v>
       </c>
       <c r="K27">
-        <v>-0.0406048173636845</v>
+        <v>-0.0653129298486933</v>
       </c>
       <c r="L27">
-        <v>-0.0810066706098085</v>
+        <v>-0.108319706388527</v>
       </c>
       <c r="M27">
-        <v>-0.0046018408504244</v>
+        <v>-0.0293738453912311</v>
       </c>
       <c r="N27">
-        <v>-3.51556860291641</v>
+        <v>-5.7292043726924</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q27">
         <v>1785783</v>
@@ -2468,19 +2462,19 @@
         <v>5496186</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,40 +2491,40 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>0.466112954810134</v>
+        <v>0.255710315907245</v>
       </c>
       <c r="G28">
-        <v>0.089171974522293</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="H28">
-        <v>0.573248407643312</v>
+        <v>0.57516339869281</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
       <c r="J28">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="K28">
-        <v>0.0168204281133492</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0489391088121203</v>
+        <v>-0.0674779853356475</v>
       </c>
       <c r="M28">
-        <v>0.07932496105028571</v>
+        <v>0.0658479267164704</v>
       </c>
       <c r="N28">
-        <v>0.533981844868228</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1785783</v>
@@ -2539,19 +2533,19 @@
         <v>5496186</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" t="s">
         <v>58</v>
-      </c>
-      <c r="W28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,13 +2565,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.549663898385934</v>
+        <v>0.714921864403519</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.7928994082840241</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2586,22 +2580,22 @@
         <v>10.47</v>
       </c>
       <c r="K29">
-        <v>0.0007147749510764</v>
+        <v>0.0049693877551019</v>
       </c>
       <c r="L29">
-        <v>-0.0150130479538339</v>
+        <v>-0.009082759147729901</v>
       </c>
       <c r="M29">
-        <v>0.0188872512417618</v>
+        <v>0.0250858516483512</v>
       </c>
       <c r="N29">
-        <v>0.0068268858746555</v>
+        <v>0.0474631113190252</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1785783</v>
@@ -2610,19 +2604,19 @@
         <v>5496186</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>0.777184811809457</v>
+        <v>0.940185970379163</v>
       </c>
       <c r="G30">
-        <v>0.108571428571429</v>
+        <v>0.113636363636364</v>
       </c>
       <c r="H30">
-        <v>0.0857142857142857</v>
+        <v>0.08522727272727269</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2660,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0001031460080338</v>
+        <v>-0.0001445389790265</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2672,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1785783</v>
@@ -2681,19 +2675,19 @@
         <v>5496186</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,37 +2707,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.126163587076499</v>
+        <v>0.253431782528229</v>
       </c>
       <c r="G31">
-        <v>0.0057142857142857</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H31">
-        <v>0.554285714285714</v>
+        <v>0.579545454545455</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="K31">
-        <v>1.33913840513291</v>
+        <v>0.830868971792539</v>
       </c>
       <c r="L31">
-        <v>-0.661532594200688</v>
+        <v>-1.13486620027378</v>
       </c>
       <c r="M31">
-        <v>2.90380944257831</v>
+        <v>2.2016332669044</v>
       </c>
       <c r="N31">
-        <v>1.69511190523153</v>
+        <v>1.05843181120069</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q31">
         <v>1785783</v>
@@ -2752,19 +2746,19 @@
         <v>5496186</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>0.723553702339841</v>
+        <v>0.707452318549358</v>
       </c>
       <c r="G32">
-        <v>0.914110429447853</v>
+        <v>0.914634146341463</v>
       </c>
       <c r="H32">
-        <v>0.116564417177914</v>
+        <v>0.115853658536585</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -2814,7 +2808,7 @@
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1785783</v>
@@ -2823,19 +2817,19 @@
         <v>5496186</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33">
-        <v>0.57069897444227</v>
+        <v>0.905646836681259</v>
       </c>
       <c r="G33">
-        <v>0.524096385542169</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="H33">
-        <v>0.0662650602409639</v>
+        <v>0.0625</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
-        <v>0.002</v>
+        <v>0.0015</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2885,7 +2879,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1785783</v>
@@ -2894,19 +2888,19 @@
         <v>5496186</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,37 +2920,37 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.778870848563633</v>
+        <v>0.994802844550519</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.8915662650602409</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.301</v>
+        <v>0.291</v>
       </c>
       <c r="K34">
-        <v>-0.002209475393028</v>
+        <v>-0.0053845618439068</v>
       </c>
       <c r="L34">
-        <v>-0.0065555814343728</v>
+        <v>-0.0099846686185868</v>
       </c>
       <c r="M34">
-        <v>0.0021535354140625</v>
+        <v>-0.0021436327905957</v>
       </c>
       <c r="N34">
-        <v>-0.734044981072433</v>
+        <v>-1.85036489481336</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q34">
         <v>1785783</v>
@@ -2965,19 +2959,19 @@
         <v>5496186</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,37 +2991,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.902776521876792</v>
+        <v>0.829997831986809</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.54601226993865</v>
+        <v>0.527272727272727</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.39</v>
+        <v>7.41</v>
       </c>
       <c r="K35">
-        <v>0.0073284510433386</v>
+        <v>0.0047782734850645</v>
       </c>
       <c r="L35">
-        <v>-0.0018744697764286</v>
+        <v>-0.003781055900621</v>
       </c>
       <c r="M35">
-        <v>0.0160549450549448</v>
+        <v>0.0133791208791215</v>
       </c>
       <c r="N35">
-        <v>0.0991671318449074</v>
+        <v>0.0644841226054593</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1785783</v>
@@ -3036,16 +3030,16 @@
         <v>5496186</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3065,37 +3059,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.788703582812276</v>
+        <v>0.990025542400187</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.908571428571429</v>
+        <v>0.897727272727273</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.307</v>
+        <v>0.3</v>
       </c>
       <c r="K36">
-        <v>-0.0022350473746545</v>
+        <v>-0.0051978653530377</v>
       </c>
       <c r="L36">
-        <v>-0.0065858063650349</v>
+        <v>-0.009954593100543601</v>
       </c>
       <c r="M36">
-        <v>0.0017800780486012</v>
+        <v>-0.0015252351950472</v>
       </c>
       <c r="N36">
-        <v>-0.728028460799532</v>
+        <v>-1.73262178434592</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1785783</v>
@@ -3104,19 +3098,19 @@
         <v>5496186</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,37 +3130,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.987642355980586</v>
+        <v>0.999933234662854</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.554285714285714</v>
+        <v>0.556818181818182</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="K37">
-        <v>-0.0056499090081892</v>
+        <v>-0.009371105681124</v>
       </c>
       <c r="L37">
-        <v>-0.0100265211607789</v>
+        <v>-0.0133578816944668</v>
       </c>
       <c r="M37">
-        <v>-0.0011136424895452</v>
+        <v>-0.0049982587825419</v>
       </c>
       <c r="N37">
-        <v>-1.37802658736323</v>
+        <v>-2.40284761054462</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1785783</v>
@@ -3175,19 +3169,19 @@
         <v>5496186</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F38">
-        <v>0.889728864677364</v>
+        <v>0.858566266140926</v>
       </c>
       <c r="G38">
-        <v>0.0171428571428571</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H38">
-        <v>0.24</v>
+        <v>0.221590909090909</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3222,22 +3216,22 @@
         <v>0.014</v>
       </c>
       <c r="K38">
-        <v>-9.91988049972842E-05</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.0002858868725813</v>
+        <v>-0.0002473205607534</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.708562892837744</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q38">
         <v>1785783</v>
@@ -3246,19 +3240,19 @@
         <v>5496186</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,31 +3272,31 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.990633681350349</v>
+        <v>0.998217205611878</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.797687861271676</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="K39">
-        <v>-0.0274624060150376</v>
+        <v>-0.0279121179039302</v>
       </c>
       <c r="L39">
-        <v>-0.0563184933836189</v>
+        <v>-0.0551980230507777</v>
       </c>
       <c r="M39">
-        <v>-0.005831836147015</v>
+        <v>-0.0112493706471456</v>
       </c>
       <c r="N39">
-        <v>-2.36744879439979</v>
+        <v>-2.44843139508159</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
@@ -3317,19 +3311,19 @@
         <v>5496186</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3361,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.356</v>
+        <v>0.409</v>
       </c>
       <c r="K40">
         <v>0.0137663766063528</v>
@@ -3370,16 +3364,16 @@
         <v>-0.055886887442522</v>
       </c>
       <c r="M40">
-        <v>0.0418301914346549</v>
+        <v>0.0424037991686754</v>
       </c>
       <c r="N40">
-        <v>3.86695972088563</v>
+        <v>3.36586225094201</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1785783</v>
@@ -3388,16 +3382,16 @@
         <v>5496186</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3417,7 +3411,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.59675202974633</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3429,25 +3423,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>102</v>
+        <v>106.43</v>
       </c>
       <c r="K41">
-        <v>1.28271265182186</v>
+        <v>2.05799629942219</v>
       </c>
       <c r="L41">
         <v>-5.78755247637636</v>
       </c>
       <c r="M41">
-        <v>2.71617775960345</v>
+        <v>3.68495388847831</v>
       </c>
       <c r="N41">
-        <v>1.25756142335476</v>
+        <v>1.93366184292229</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q41">
         <v>1785783</v>
@@ -3456,16 +3450,16 @@
         <v>5496186</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3485,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.231216363225238</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3497,25 +3491,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4.41</v>
+        <v>4.81</v>
       </c>
       <c r="K42">
-        <v>-0.155762710905682</v>
+        <v>-0.138284765519111</v>
       </c>
       <c r="L42">
         <v>-0.505487109692713</v>
       </c>
       <c r="M42">
-        <v>0.141287012864414</v>
+        <v>0.480500806708979</v>
       </c>
       <c r="N42">
-        <v>-3.53203426089982</v>
+        <v>-2.87494315008546</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q42">
         <v>1785783</v>
@@ -3524,16 +3518,16 @@
         <v>5496186</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3553,7 +3547,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.141565435331173</v>
+        <v>0.5</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3568,22 +3562,22 @@
         <v>0.3825</v>
       </c>
       <c r="K43">
-        <v>-0.0202543658088235</v>
+        <v>-0.0012186606291706</v>
       </c>
       <c r="L43">
-        <v>-0.0415938182788487</v>
+        <v>-0.033731641590538</v>
       </c>
       <c r="M43">
-        <v>0.0072127826178673</v>
+        <v>0.0201952631708619</v>
       </c>
       <c r="N43">
-        <v>-5.29525903498655</v>
+        <v>-0.318604086057681</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q43">
         <v>1785783</v>
@@ -3592,16 +3586,16 @@
         <v>5496186</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3618,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44">
-        <v>0.121517480147261</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3636,22 +3630,22 @@
         <v>104.215</v>
       </c>
       <c r="K44">
-        <v>-1.1315834767642</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>-2.51456511046723</v>
+        <v>-1.56050453627174</v>
       </c>
       <c r="M44">
-        <v>0.187037790308615</v>
+        <v>1.50368102865629</v>
       </c>
       <c r="N44">
-        <v>-1.08581631892165</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q44">
         <v>1785783</v>
@@ -3660,16 +3654,16 @@
         <v>5496186</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3689,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.105248850027669</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3707,10 +3701,10 @@
         <v>-0.178851078167116</v>
       </c>
       <c r="L45">
-        <v>-0.518400120898371</v>
+        <v>-0.478914823829601</v>
       </c>
       <c r="M45">
-        <v>0.0822653416762751</v>
+        <v>0.227485959896224</v>
       </c>
       <c r="N45">
         <v>-3.70292087302518</v>
@@ -3719,7 +3713,7 @@
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q45">
         <v>1785783</v>
@@ -3728,16 +3722,16 @@
         <v>5496186</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
